--- a/Пример работы фриланс, чек-листы тест-кейсы + баг репорт.xlsx
+++ b/Пример работы фриланс, чек-листы тест-кейсы + баг репорт.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\QA-examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19522" windowHeight="6996" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19522" windowHeight="6996" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Чек-листы" sheetId="1" r:id="rId1"/>
@@ -1118,10 +1118,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1133,21 +1161,16 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1155,14 +1178,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1171,23 +1186,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1525,23 +1525,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" ht="23.95" customHeight="1">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="1:27" ht="12.9">
       <c r="A3" s="1"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -1719,7 +1719,7 @@
   </sheetPr>
   <dimension ref="A1:Z948"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
@@ -1749,13 +1749,13 @@
       <c r="G4" s="23"/>
       <c r="I4" s="24"/>
     </row>
-    <row r="5" spans="1:26" ht="15.8" customHeight="1">
-      <c r="D5" s="72" t="s">
+    <row r="5" spans="1:26" ht="22.45" customHeight="1">
+      <c r="D5" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="86"/>
     </row>
     <row r="6" spans="1:26" ht="3.75" customHeight="1">
       <c r="C6" s="25"/>
@@ -1781,16 +1781,16 @@
       <c r="K7" s="26"/>
     </row>
     <row r="8" spans="1:26" ht="15.8" customHeight="1">
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="76" t="s">
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="73"/>
-      <c r="G8" s="74"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="86"/>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
@@ -1863,13 +1863,13 @@
     </row>
     <row r="13" spans="1:26" ht="15.8" customHeight="1">
       <c r="A13" s="37"/>
-      <c r="B13" s="77">
+      <c r="B13" s="78">
         <v>1</v>
       </c>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="80"/>
+      <c r="D13" s="83"/>
       <c r="E13" s="38" t="s">
         <v>37</v>
       </c>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="14" spans="1:26" ht="15.8" customHeight="1">
       <c r="A14" s="37"/>
-      <c r="B14" s="78"/>
+      <c r="B14" s="79"/>
       <c r="C14" s="81"/>
       <c r="D14" s="81"/>
       <c r="E14" s="42" t="s">
@@ -1931,7 +1931,7 @@
     </row>
     <row r="15" spans="1:26" ht="15.8" customHeight="1">
       <c r="A15" s="37"/>
-      <c r="B15" s="78"/>
+      <c r="B15" s="79"/>
       <c r="C15" s="81"/>
       <c r="D15" s="81"/>
       <c r="E15" s="42" t="s">
@@ -1963,7 +1963,7 @@
     </row>
     <row r="16" spans="1:26" ht="15.8" customHeight="1">
       <c r="A16" s="37"/>
-      <c r="B16" s="79"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="82"/>
       <c r="D16" s="82"/>
       <c r="E16" s="47" t="s">
@@ -2023,13 +2023,13 @@
     </row>
     <row r="18" spans="1:26" ht="12.9">
       <c r="A18" s="37"/>
-      <c r="B18" s="77">
+      <c r="B18" s="78">
         <v>2</v>
       </c>
-      <c r="C18" s="83" t="s">
+      <c r="C18" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="80"/>
+      <c r="D18" s="83"/>
       <c r="E18" s="38" t="s">
         <v>45</v>
       </c>
@@ -2059,7 +2059,7 @@
     </row>
     <row r="19" spans="1:26" ht="25.85">
       <c r="A19" s="37"/>
-      <c r="B19" s="78"/>
+      <c r="B19" s="79"/>
       <c r="C19" s="81"/>
       <c r="D19" s="81"/>
       <c r="E19" s="44" t="s">
@@ -2091,7 +2091,7 @@
     </row>
     <row r="20" spans="1:26" ht="167.8">
       <c r="A20" s="37"/>
-      <c r="B20" s="79"/>
+      <c r="B20" s="80"/>
       <c r="C20" s="82"/>
       <c r="D20" s="82"/>
       <c r="E20" s="49" t="s">
@@ -2153,13 +2153,13 @@
     </row>
     <row r="22" spans="1:26" ht="12.9">
       <c r="A22" s="37"/>
-      <c r="B22" s="77">
+      <c r="B22" s="78">
         <v>3</v>
       </c>
-      <c r="C22" s="83" t="s">
+      <c r="C22" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="80"/>
+      <c r="D22" s="83"/>
       <c r="E22" s="38" t="s">
         <v>52</v>
       </c>
@@ -2189,7 +2189,7 @@
     </row>
     <row r="23" spans="1:26" ht="25.85">
       <c r="A23" s="37"/>
-      <c r="B23" s="78"/>
+      <c r="B23" s="79"/>
       <c r="C23" s="81"/>
       <c r="D23" s="81"/>
       <c r="E23" s="44" t="s">
@@ -2221,7 +2221,7 @@
     </row>
     <row r="24" spans="1:26" ht="51.65">
       <c r="A24" s="37"/>
-      <c r="B24" s="78"/>
+      <c r="B24" s="79"/>
       <c r="C24" s="81"/>
       <c r="D24" s="81"/>
       <c r="E24" s="56" t="s">
@@ -2255,7 +2255,7 @@
     </row>
     <row r="25" spans="1:26" ht="12.9">
       <c r="A25" s="37"/>
-      <c r="B25" s="79"/>
+      <c r="B25" s="80"/>
       <c r="C25" s="82"/>
       <c r="D25" s="82"/>
       <c r="E25" s="49" t="s">
@@ -2315,13 +2315,13 @@
     </row>
     <row r="27" spans="1:26" ht="25.85">
       <c r="A27" s="37"/>
-      <c r="B27" s="77">
+      <c r="B27" s="78">
         <v>4</v>
       </c>
-      <c r="C27" s="83" t="s">
+      <c r="C27" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="80"/>
+      <c r="D27" s="83"/>
       <c r="E27" s="38" t="s">
         <v>60</v>
       </c>
@@ -2329,8 +2329,8 @@
       <c r="G27" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="H27" s="83"/>
-      <c r="I27" s="96"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="70"/>
       <c r="J27" s="41"/>
       <c r="K27" s="37"/>
       <c r="L27" s="37"/>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="28" spans="1:26" ht="12.9">
       <c r="A28" s="37"/>
-      <c r="B28" s="78"/>
+      <c r="B28" s="79"/>
       <c r="C28" s="81"/>
       <c r="D28" s="81"/>
       <c r="E28" s="42" t="s">
@@ -2361,8 +2361,8 @@
       <c r="G28" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="H28" s="99"/>
-      <c r="I28" s="97"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="71"/>
       <c r="J28" s="46"/>
       <c r="K28" s="37"/>
       <c r="L28" s="37"/>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="29" spans="1:26" ht="25.85">
       <c r="A29" s="37"/>
-      <c r="B29" s="78"/>
+      <c r="B29" s="79"/>
       <c r="C29" s="81"/>
       <c r="D29" s="81"/>
       <c r="E29" s="44" t="s">
@@ -2393,8 +2393,8 @@
       <c r="G29" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="H29" s="99"/>
-      <c r="I29" s="97"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="71"/>
       <c r="J29" s="46"/>
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="30" spans="1:26" ht="108.7" customHeight="1" thickBot="1">
       <c r="A30" s="37"/>
-      <c r="B30" s="79"/>
+      <c r="B30" s="80"/>
       <c r="C30" s="82"/>
       <c r="D30" s="82"/>
       <c r="E30" s="44" t="s">
@@ -2427,8 +2427,8 @@
       <c r="G30" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="H30" s="100"/>
-      <c r="I30" s="98"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="72"/>
       <c r="J30" s="59" t="s">
         <v>19</v>
       </c>
@@ -2479,13 +2479,13 @@
     </row>
     <row r="32" spans="1:26" ht="25.85">
       <c r="A32" s="37"/>
-      <c r="B32" s="77">
+      <c r="B32" s="78">
         <v>5</v>
       </c>
-      <c r="C32" s="83" t="s">
+      <c r="C32" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="80"/>
+      <c r="D32" s="83"/>
       <c r="E32" s="38" t="s">
         <v>69</v>
       </c>
@@ -2517,7 +2517,7 @@
     </row>
     <row r="33" spans="1:26" ht="25.85">
       <c r="A33" s="37"/>
-      <c r="B33" s="78"/>
+      <c r="B33" s="79"/>
       <c r="C33" s="81"/>
       <c r="D33" s="81"/>
       <c r="E33" s="42" t="s">
@@ -2551,7 +2551,7 @@
     </row>
     <row r="34" spans="1:26" ht="25.85">
       <c r="A34" s="37"/>
-      <c r="B34" s="79"/>
+      <c r="B34" s="80"/>
       <c r="C34" s="82"/>
       <c r="D34" s="82"/>
       <c r="E34" s="49" t="s">
@@ -2611,13 +2611,13 @@
     </row>
     <row r="36" spans="1:26" ht="25.85">
       <c r="A36" s="37"/>
-      <c r="B36" s="77">
+      <c r="B36" s="78">
         <v>6</v>
       </c>
-      <c r="C36" s="83" t="s">
+      <c r="C36" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="80"/>
+      <c r="D36" s="83"/>
       <c r="E36" s="38" t="s">
         <v>77</v>
       </c>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="37" spans="1:26" ht="38.75">
       <c r="A37" s="37"/>
-      <c r="B37" s="79"/>
+      <c r="B37" s="80"/>
       <c r="C37" s="82"/>
       <c r="D37" s="82"/>
       <c r="E37" s="49" t="s">
@@ -4647,19 +4647,6 @@
     <row r="948" ht="15.8" customHeight="1"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="E8:G8"/>
@@ -4669,6 +4656,19 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="D18:D20"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="B27:B30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E8" r:id="rId1"/>
@@ -4687,7 +4687,7 @@
   </sheetPr>
   <dimension ref="A1:AB948"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L11" sqref="L11:L16"/>
     </sheetView>
@@ -4736,13 +4736,13 @@
     <row r="6" spans="1:28" ht="15.8" customHeight="1">
       <c r="A6" s="22"/>
       <c r="B6" s="22"/>
-      <c r="D6" s="95" t="s">
+      <c r="D6" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="74"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="86"/>
       <c r="I6" s="60"/>
       <c r="J6" s="23"/>
     </row>
@@ -4825,33 +4825,33 @@
     </row>
     <row r="11" spans="1:28" ht="25.85">
       <c r="A11" s="66"/>
-      <c r="B11" s="77">
+      <c r="B11" s="78">
         <v>1</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="86" t="s">
+      <c r="D11" s="94"/>
+      <c r="E11" s="95" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="91" t="s">
+      <c r="G11" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="H11" s="91" t="s">
+      <c r="H11" s="96" t="s">
         <v>89</v>
       </c>
-      <c r="I11" s="87"/>
-      <c r="J11" s="83" t="s">
+      <c r="I11" s="93"/>
+      <c r="J11" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="K11" s="83" t="s">
+      <c r="K11" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="L11" s="88" t="s">
+      <c r="L11" s="90" t="s">
         <v>92</v>
       </c>
       <c r="M11" s="66"/>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="12" spans="1:28" ht="25.85">
       <c r="A12" s="66"/>
-      <c r="B12" s="78"/>
+      <c r="B12" s="79"/>
       <c r="C12" s="81"/>
       <c r="D12" s="81"/>
       <c r="E12" s="81"/>
@@ -4885,7 +4885,7 @@
       <c r="I12" s="81"/>
       <c r="J12" s="81"/>
       <c r="K12" s="81"/>
-      <c r="L12" s="89"/>
+      <c r="L12" s="91"/>
       <c r="M12" s="66"/>
       <c r="N12" s="66"/>
       <c r="O12" s="66"/>
@@ -4905,7 +4905,7 @@
     </row>
     <row r="13" spans="1:28" ht="38.75">
       <c r="A13" s="66"/>
-      <c r="B13" s="78"/>
+      <c r="B13" s="79"/>
       <c r="C13" s="81"/>
       <c r="D13" s="81"/>
       <c r="E13" s="81"/>
@@ -4917,7 +4917,7 @@
       <c r="I13" s="81"/>
       <c r="J13" s="81"/>
       <c r="K13" s="81"/>
-      <c r="L13" s="89"/>
+      <c r="L13" s="91"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="14" spans="1:28" ht="25.85">
       <c r="A14" s="66"/>
-      <c r="B14" s="78"/>
+      <c r="B14" s="79"/>
       <c r="C14" s="81"/>
       <c r="D14" s="81"/>
       <c r="E14" s="81"/>
@@ -4949,7 +4949,7 @@
       <c r="I14" s="81"/>
       <c r="J14" s="81"/>
       <c r="K14" s="81"/>
-      <c r="L14" s="89"/>
+      <c r="L14" s="91"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -4969,17 +4969,17 @@
     </row>
     <row r="15" spans="1:28" ht="15.8" customHeight="1">
       <c r="A15" s="66"/>
-      <c r="B15" s="78"/>
+      <c r="B15" s="79"/>
       <c r="C15" s="81"/>
       <c r="D15" s="81"/>
       <c r="E15" s="81"/>
-      <c r="F15" s="93"/>
+      <c r="F15" s="98"/>
       <c r="G15" s="81"/>
       <c r="H15" s="81"/>
       <c r="I15" s="81"/>
       <c r="J15" s="81"/>
       <c r="K15" s="81"/>
-      <c r="L15" s="89"/>
+      <c r="L15" s="91"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -4999,17 +4999,17 @@
     </row>
     <row r="16" spans="1:28" ht="78.8" customHeight="1">
       <c r="A16" s="66"/>
-      <c r="B16" s="79"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="82"/>
       <c r="D16" s="82"/>
       <c r="E16" s="82"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
       <c r="I16" s="82"/>
       <c r="J16" s="82"/>
       <c r="K16" s="82"/>
-      <c r="L16" s="90"/>
+      <c r="L16" s="92"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -5119,33 +5119,33 @@
     </row>
     <row r="20" spans="1:28" ht="15.8" customHeight="1">
       <c r="A20" s="66"/>
-      <c r="B20" s="77">
+      <c r="B20" s="78">
         <v>2</v>
       </c>
-      <c r="C20" s="84" t="s">
+      <c r="C20" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="85"/>
-      <c r="E20" s="86" t="s">
+      <c r="D20" s="94"/>
+      <c r="E20" s="95" t="s">
         <v>26</v>
       </c>
       <c r="F20" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="84" t="s">
+      <c r="G20" s="100" t="s">
         <v>94</v>
       </c>
-      <c r="H20" s="85" t="s">
+      <c r="H20" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="I20" s="87"/>
-      <c r="J20" s="83" t="s">
+      <c r="I20" s="93"/>
+      <c r="J20" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="K20" s="83" t="s">
+      <c r="K20" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="L20" s="88" t="s">
+      <c r="L20" s="90" t="s">
         <v>92</v>
       </c>
       <c r="M20" s="66"/>
@@ -5167,7 +5167,7 @@
     </row>
     <row r="21" spans="1:28" ht="15.8" customHeight="1">
       <c r="A21" s="66"/>
-      <c r="B21" s="78"/>
+      <c r="B21" s="79"/>
       <c r="C21" s="81"/>
       <c r="D21" s="81"/>
       <c r="E21" s="81"/>
@@ -5179,7 +5179,7 @@
       <c r="I21" s="81"/>
       <c r="J21" s="81"/>
       <c r="K21" s="81"/>
-      <c r="L21" s="89"/>
+      <c r="L21" s="91"/>
       <c r="M21" s="66"/>
       <c r="N21" s="66"/>
       <c r="O21" s="66"/>
@@ -5199,7 +5199,7 @@
     </row>
     <row r="22" spans="1:28" ht="15.8" customHeight="1">
       <c r="A22" s="66"/>
-      <c r="B22" s="78"/>
+      <c r="B22" s="79"/>
       <c r="C22" s="81"/>
       <c r="D22" s="81"/>
       <c r="E22" s="81"/>
@@ -5211,7 +5211,7 @@
       <c r="I22" s="81"/>
       <c r="J22" s="81"/>
       <c r="K22" s="81"/>
-      <c r="L22" s="89"/>
+      <c r="L22" s="91"/>
       <c r="M22" s="66"/>
       <c r="N22" s="66"/>
       <c r="O22" s="66"/>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="23" spans="1:28" ht="15.8" customHeight="1">
       <c r="A23" s="66"/>
-      <c r="B23" s="78"/>
+      <c r="B23" s="79"/>
       <c r="C23" s="81"/>
       <c r="D23" s="81"/>
       <c r="E23" s="81"/>
@@ -5243,7 +5243,7 @@
       <c r="I23" s="81"/>
       <c r="J23" s="81"/>
       <c r="K23" s="81"/>
-      <c r="L23" s="89"/>
+      <c r="L23" s="91"/>
       <c r="M23" s="66"/>
       <c r="N23" s="66"/>
       <c r="O23" s="66"/>
@@ -5263,7 +5263,7 @@
     </row>
     <row r="24" spans="1:28" ht="15.8" customHeight="1">
       <c r="A24" s="66"/>
-      <c r="B24" s="78"/>
+      <c r="B24" s="79"/>
       <c r="C24" s="81"/>
       <c r="D24" s="81"/>
       <c r="E24" s="81"/>
@@ -5275,7 +5275,7 @@
       <c r="I24" s="81"/>
       <c r="J24" s="81"/>
       <c r="K24" s="81"/>
-      <c r="L24" s="89"/>
+      <c r="L24" s="91"/>
       <c r="M24" s="66"/>
       <c r="N24" s="66"/>
       <c r="O24" s="66"/>
@@ -5295,7 +5295,7 @@
     </row>
     <row r="25" spans="1:28" ht="82.55" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="79"/>
+      <c r="B25" s="80"/>
       <c r="C25" s="82"/>
       <c r="D25" s="82"/>
       <c r="E25" s="82"/>
@@ -5307,7 +5307,7 @@
       <c r="I25" s="82"/>
       <c r="J25" s="82"/>
       <c r="K25" s="82"/>
-      <c r="L25" s="90"/>
+      <c r="L25" s="92"/>
       <c r="M25" s="66"/>
       <c r="N25" s="66"/>
       <c r="O25" s="66"/>
@@ -9004,28 +9004,28 @@
     <row r="948" ht="15.8" customHeight="1"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="E20:E25"/>
+    <mergeCell ref="G20:G25"/>
+    <mergeCell ref="H20:H25"/>
+    <mergeCell ref="I20:I25"/>
+    <mergeCell ref="J20:J25"/>
+    <mergeCell ref="K20:K25"/>
+    <mergeCell ref="L20:L25"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="E11:E16"/>
+    <mergeCell ref="G11:G16"/>
+    <mergeCell ref="F15:F16"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="J11:J16"/>
     <mergeCell ref="K11:K16"/>
     <mergeCell ref="L11:L16"/>
     <mergeCell ref="I11:I16"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="E11:E16"/>
-    <mergeCell ref="G11:G16"/>
     <mergeCell ref="H11:H16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="H20:H25"/>
-    <mergeCell ref="I20:I25"/>
-    <mergeCell ref="J20:J25"/>
-    <mergeCell ref="K20:K25"/>
-    <mergeCell ref="L20:L25"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="E20:E25"/>
-    <mergeCell ref="G20:G25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E11" r:id="rId1"/>
